--- a/РАБОЧИЙ СТОЛ/30,09,25 Ост КИ филиалы/дв 30,09,25 бррсч ост ки.xlsx
+++ b/РАБОЧИЙ СТОЛ/30,09,25 Ост КИ филиалы/дв 30,09,25 бррсч ост ки.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\30,09,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\РАБОЧИЙ СТОЛ\30,09,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA6CD82-72CD-4F24-AF8E-17F1E15A9E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2B7C60-5308-4900-BC12-BD8876B36CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,20 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AH$98</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="152">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -471,6 +463,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / вывод</t>
     </r>
@@ -553,6 +547,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / Мкд Трейд</t>
     </r>
@@ -579,17 +575,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -689,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -706,9 +708,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1024,7 +1023,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,7 +3101,7 @@
       <c r="AF20" s="1">
         <v>1.6133999999999999</v>
       </c>
-      <c r="AG20" s="24" t="s">
+      <c r="AG20" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AH20" s="1">
@@ -5888,7 +5887,7 @@
       <c r="AF45" s="1">
         <v>0</v>
       </c>
-      <c r="AG45" s="24" t="s">
+      <c r="AG45" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AH45" s="1">
@@ -6332,7 +6331,7 @@
       <c r="AF49" s="1">
         <v>207.6</v>
       </c>
-      <c r="AG49" s="24" t="s">
+      <c r="AG49" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AH49" s="1">
@@ -7095,7 +7094,7 @@
       <c r="AF56" s="1">
         <v>0.4</v>
       </c>
-      <c r="AG56" s="24" t="s">
+      <c r="AG56" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AH56" s="1">
@@ -8881,89 +8880,89 @@
       <c r="AW72" s="1"/>
     </row>
     <row r="73" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1">
         <v>-3</v>
       </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="17">
+      <c r="F73" s="1"/>
+      <c r="G73" s="8">
         <v>0.3</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H73" s="1">
         <v>50</v>
       </c>
-      <c r="I73" s="16" t="s">
+      <c r="I73" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1">
         <v>52</v>
       </c>
-      <c r="L73" s="16">
+      <c r="L73" s="1">
         <f t="shared" si="12"/>
         <v>-55</v>
       </c>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16">
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1">
         <v>100</v>
       </c>
-      <c r="P73" s="16">
+      <c r="P73" s="1">
         <v>80</v>
       </c>
-      <c r="Q73" s="16">
+      <c r="Q73" s="1">
         <f t="shared" si="13"/>
         <v>-0.6</v>
       </c>
       <c r="R73" s="5"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16">
+      <c r="S73" s="5"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1">
         <f t="shared" si="14"/>
         <v>-300</v>
       </c>
-      <c r="V73" s="16">
+      <c r="V73" s="1">
         <f t="shared" si="15"/>
         <v>-300</v>
       </c>
-      <c r="W73" s="16">
+      <c r="W73" s="1">
         <v>16</v>
       </c>
-      <c r="X73" s="16">
+      <c r="X73" s="1">
         <v>-0.6</v>
       </c>
-      <c r="Y73" s="16">
+      <c r="Y73" s="1">
         <v>1.8</v>
       </c>
-      <c r="Z73" s="16">
+      <c r="Z73" s="1">
         <v>18.600000000000001</v>
       </c>
-      <c r="AA73" s="16">
+      <c r="AA73" s="1">
         <v>18.2</v>
       </c>
-      <c r="AB73" s="16">
+      <c r="AB73" s="1">
         <v>24.4</v>
       </c>
-      <c r="AC73" s="16">
+      <c r="AC73" s="1">
         <v>13.8</v>
       </c>
-      <c r="AD73" s="16">
+      <c r="AD73" s="1">
         <v>40.799999999999997</v>
       </c>
-      <c r="AE73" s="16">
+      <c r="AE73" s="1">
         <v>22.4</v>
       </c>
-      <c r="AF73" s="16">
+      <c r="AF73" s="1">
         <v>35.6</v>
       </c>
-      <c r="AG73" s="16" t="s">
+      <c r="AG73" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AH73" s="1">
@@ -9187,7 +9186,7 @@
       <c r="AF75" s="1">
         <v>39</v>
       </c>
-      <c r="AG75" s="24" t="s">
+      <c r="AG75" s="21" t="s">
         <v>57</v>
       </c>
       <c r="AH75" s="1">
@@ -9427,7 +9426,7 @@
       <c r="AW77" s="1"/>
     </row>
     <row r="78" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -10077,7 +10076,7 @@
       <c r="AW83" s="1"/>
     </row>
     <row r="84" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -10157,7 +10156,7 @@
       <c r="AF84" s="1">
         <v>0</v>
       </c>
-      <c r="AG84" s="19" t="s">
+      <c r="AG84" s="16" t="s">
         <v>128</v>
       </c>
       <c r="AH84" s="1">
@@ -10851,7 +10850,7 @@
       <c r="AW90" s="1"/>
     </row>
     <row r="91" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -11065,81 +11064,83 @@
       <c r="AW92" s="1"/>
     </row>
     <row r="93" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="22">
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H93" s="20">
+      <c r="H93" s="17">
         <v>50</v>
       </c>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="20"/>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20"/>
-      <c r="P93" s="20"/>
-      <c r="Q93" s="20">
+      <c r="I93" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17">
         <f t="shared" ref="Q93:Q98" si="17">E93/5</f>
         <v>0</v>
       </c>
-      <c r="R93" s="23">
+      <c r="R93" s="20">
         <v>20</v>
       </c>
-      <c r="S93" s="23"/>
-      <c r="T93" s="20"/>
-      <c r="U93" s="20" t="e">
+      <c r="S93" s="20"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="17" t="e">
         <f t="shared" ref="U93:U98" si="18">(F93+O93+P93+R93)/Q93</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V93" s="20" t="e">
+      <c r="V93" s="17" t="e">
         <f t="shared" ref="V93:V98" si="19">(F93+O93+P93)/Q93</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W93" s="20">
+      <c r="W93" s="17">
         <v>0</v>
       </c>
-      <c r="X93" s="20">
+      <c r="X93" s="17">
         <v>0</v>
       </c>
-      <c r="Y93" s="20">
+      <c r="Y93" s="17">
         <v>0</v>
       </c>
-      <c r="Z93" s="20">
+      <c r="Z93" s="17">
         <v>0</v>
       </c>
-      <c r="AA93" s="20">
+      <c r="AA93" s="17">
         <v>0</v>
       </c>
-      <c r="AB93" s="20">
+      <c r="AB93" s="17">
         <v>0</v>
       </c>
-      <c r="AC93" s="20">
+      <c r="AC93" s="17">
         <v>0</v>
       </c>
-      <c r="AD93" s="20">
+      <c r="AD93" s="17">
         <v>0</v>
       </c>
-      <c r="AE93" s="20">
+      <c r="AE93" s="17">
         <v>0</v>
       </c>
-      <c r="AF93" s="20">
+      <c r="AF93" s="17">
         <v>0</v>
       </c>
-      <c r="AG93" s="21" t="s">
+      <c r="AG93" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AH93" s="20">
+      <c r="AH93" s="17">
         <f t="shared" ref="AH93:AH98" si="20">G93*R93</f>
         <v>5.6000000000000005</v>
       </c>
@@ -11160,81 +11161,83 @@
       <c r="AW93" s="1"/>
     </row>
     <row r="94" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C94" s="20"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="22">
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="19">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H94" s="20">
+      <c r="H94" s="17">
         <v>50</v>
       </c>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="20"/>
-      <c r="M94" s="20"/>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20"/>
-      <c r="P94" s="20"/>
-      <c r="Q94" s="20">
+      <c r="I94" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R94" s="23">
+      <c r="R94" s="20">
         <v>20</v>
       </c>
-      <c r="S94" s="23"/>
-      <c r="T94" s="20"/>
-      <c r="U94" s="20" t="e">
+      <c r="S94" s="20"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="17" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V94" s="20" t="e">
+      <c r="V94" s="17" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W94" s="20">
+      <c r="W94" s="17">
         <v>0</v>
       </c>
-      <c r="X94" s="20">
+      <c r="X94" s="17">
         <v>0</v>
       </c>
-      <c r="Y94" s="20">
+      <c r="Y94" s="17">
         <v>0</v>
       </c>
-      <c r="Z94" s="20">
+      <c r="Z94" s="17">
         <v>0</v>
       </c>
-      <c r="AA94" s="20">
+      <c r="AA94" s="17">
         <v>0</v>
       </c>
-      <c r="AB94" s="20">
+      <c r="AB94" s="17">
         <v>0</v>
       </c>
-      <c r="AC94" s="20">
+      <c r="AC94" s="17">
         <v>0</v>
       </c>
-      <c r="AD94" s="20">
+      <c r="AD94" s="17">
         <v>0</v>
       </c>
-      <c r="AE94" s="20">
+      <c r="AE94" s="17">
         <v>0</v>
       </c>
-      <c r="AF94" s="20">
+      <c r="AF94" s="17">
         <v>0</v>
       </c>
-      <c r="AG94" s="21" t="s">
+      <c r="AG94" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AH94" s="20">
+      <c r="AH94" s="17">
         <f t="shared" si="20"/>
         <v>5.6000000000000005</v>
       </c>
@@ -11255,81 +11258,83 @@
       <c r="AW94" s="1"/>
     </row>
     <row r="95" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="22">
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="19">
         <v>1</v>
       </c>
-      <c r="H95" s="20">
+      <c r="H95" s="17">
         <v>60</v>
       </c>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="20"/>
-      <c r="M95" s="20"/>
-      <c r="N95" s="20"/>
-      <c r="O95" s="20"/>
-      <c r="P95" s="20"/>
-      <c r="Q95" s="20">
+      <c r="I95" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R95" s="23">
+      <c r="R95" s="20">
         <v>10</v>
       </c>
-      <c r="S95" s="23"/>
-      <c r="T95" s="20"/>
-      <c r="U95" s="20" t="e">
+      <c r="S95" s="20"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="17" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V95" s="20" t="e">
+      <c r="V95" s="17" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W95" s="20">
+      <c r="W95" s="17">
         <v>0</v>
       </c>
-      <c r="X95" s="20">
+      <c r="X95" s="17">
         <v>0</v>
       </c>
-      <c r="Y95" s="20">
+      <c r="Y95" s="17">
         <v>0</v>
       </c>
-      <c r="Z95" s="20">
+      <c r="Z95" s="17">
         <v>0</v>
       </c>
-      <c r="AA95" s="20">
+      <c r="AA95" s="17">
         <v>0</v>
       </c>
-      <c r="AB95" s="20">
+      <c r="AB95" s="17">
         <v>0</v>
       </c>
-      <c r="AC95" s="20">
+      <c r="AC95" s="17">
         <v>0</v>
       </c>
-      <c r="AD95" s="20">
+      <c r="AD95" s="17">
         <v>0</v>
       </c>
-      <c r="AE95" s="20">
+      <c r="AE95" s="17">
         <v>0</v>
       </c>
-      <c r="AF95" s="20">
+      <c r="AF95" s="17">
         <v>0</v>
       </c>
-      <c r="AG95" s="21" t="s">
+      <c r="AG95" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AH95" s="20">
+      <c r="AH95" s="17">
         <f t="shared" si="20"/>
         <v>10</v>
       </c>
@@ -11350,81 +11355,83 @@
       <c r="AW95" s="1"/>
     </row>
     <row r="96" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="22">
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="19">
         <v>1</v>
       </c>
-      <c r="H96" s="20">
+      <c r="H96" s="17">
         <v>50</v>
       </c>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
-      <c r="O96" s="20"/>
-      <c r="P96" s="20"/>
-      <c r="Q96" s="20">
+      <c r="I96" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R96" s="23">
+      <c r="R96" s="20">
         <v>10</v>
       </c>
-      <c r="S96" s="23"/>
-      <c r="T96" s="20"/>
-      <c r="U96" s="20" t="e">
+      <c r="S96" s="20"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="17" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V96" s="20" t="e">
+      <c r="V96" s="17" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W96" s="20">
+      <c r="W96" s="17">
         <v>0</v>
       </c>
-      <c r="X96" s="20">
+      <c r="X96" s="17">
         <v>0</v>
       </c>
-      <c r="Y96" s="20">
+      <c r="Y96" s="17">
         <v>0</v>
       </c>
-      <c r="Z96" s="20">
+      <c r="Z96" s="17">
         <v>0</v>
       </c>
-      <c r="AA96" s="20">
+      <c r="AA96" s="17">
         <v>0</v>
       </c>
-      <c r="AB96" s="20">
+      <c r="AB96" s="17">
         <v>0</v>
       </c>
-      <c r="AC96" s="20">
+      <c r="AC96" s="17">
         <v>0</v>
       </c>
-      <c r="AD96" s="20">
+      <c r="AD96" s="17">
         <v>0</v>
       </c>
-      <c r="AE96" s="20">
+      <c r="AE96" s="17">
         <v>0</v>
       </c>
-      <c r="AF96" s="20">
+      <c r="AF96" s="17">
         <v>0</v>
       </c>
-      <c r="AG96" s="21" t="s">
+      <c r="AG96" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AH96" s="20">
+      <c r="AH96" s="17">
         <f t="shared" si="20"/>
         <v>10</v>
       </c>
@@ -11445,81 +11452,83 @@
       <c r="AW96" s="1"/>
     </row>
     <row r="97" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="22">
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="19">
         <v>0.15</v>
       </c>
-      <c r="H97" s="20">
+      <c r="H97" s="17">
         <v>45</v>
       </c>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="20"/>
-      <c r="P97" s="20"/>
-      <c r="Q97" s="20">
+      <c r="I97" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R97" s="23">
+      <c r="R97" s="20">
         <v>20</v>
       </c>
-      <c r="S97" s="23"/>
-      <c r="T97" s="20"/>
-      <c r="U97" s="20" t="e">
+      <c r="S97" s="20"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="17" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V97" s="20" t="e">
+      <c r="V97" s="17" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W97" s="20">
+      <c r="W97" s="17">
         <v>0</v>
       </c>
-      <c r="X97" s="20">
+      <c r="X97" s="17">
         <v>0</v>
       </c>
-      <c r="Y97" s="20">
+      <c r="Y97" s="17">
         <v>0</v>
       </c>
-      <c r="Z97" s="20">
+      <c r="Z97" s="17">
         <v>0</v>
       </c>
-      <c r="AA97" s="20">
+      <c r="AA97" s="17">
         <v>0</v>
       </c>
-      <c r="AB97" s="20">
+      <c r="AB97" s="17">
         <v>0</v>
       </c>
-      <c r="AC97" s="20">
+      <c r="AC97" s="17">
         <v>0</v>
       </c>
-      <c r="AD97" s="20">
+      <c r="AD97" s="17">
         <v>0</v>
       </c>
-      <c r="AE97" s="20">
+      <c r="AE97" s="17">
         <v>0</v>
       </c>
-      <c r="AF97" s="20">
+      <c r="AF97" s="17">
         <v>0</v>
       </c>
-      <c r="AG97" s="21" t="s">
+      <c r="AG97" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AH97" s="20">
+      <c r="AH97" s="17">
         <f t="shared" si="20"/>
         <v>3</v>
       </c>
@@ -11540,81 +11549,83 @@
       <c r="AW97" s="1"/>
     </row>
     <row r="98" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="22">
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="19">
         <v>0.25</v>
       </c>
-      <c r="H98" s="20">
+      <c r="H98" s="17">
         <v>120</v>
       </c>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="20"/>
-      <c r="N98" s="20"/>
-      <c r="O98" s="20"/>
-      <c r="P98" s="20"/>
-      <c r="Q98" s="20">
+      <c r="I98" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R98" s="23">
+      <c r="R98" s="20">
         <v>20</v>
       </c>
-      <c r="S98" s="23"/>
-      <c r="T98" s="20"/>
-      <c r="U98" s="20" t="e">
+      <c r="S98" s="20"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="17" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V98" s="20" t="e">
+      <c r="V98" s="17" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W98" s="20">
+      <c r="W98" s="17">
         <v>0</v>
       </c>
-      <c r="X98" s="20">
+      <c r="X98" s="17">
         <v>0</v>
       </c>
-      <c r="Y98" s="20">
+      <c r="Y98" s="17">
         <v>0</v>
       </c>
-      <c r="Z98" s="20">
+      <c r="Z98" s="17">
         <v>0</v>
       </c>
-      <c r="AA98" s="20">
+      <c r="AA98" s="17">
         <v>0</v>
       </c>
-      <c r="AB98" s="20">
+      <c r="AB98" s="17">
         <v>0</v>
       </c>
-      <c r="AC98" s="20">
+      <c r="AC98" s="17">
         <v>0</v>
       </c>
-      <c r="AD98" s="20">
+      <c r="AD98" s="17">
         <v>0</v>
       </c>
-      <c r="AE98" s="20">
+      <c r="AE98" s="17">
         <v>0</v>
       </c>
-      <c r="AF98" s="20">
+      <c r="AF98" s="17">
         <v>0</v>
       </c>
-      <c r="AG98" s="21" t="s">
+      <c r="AG98" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AH98" s="20">
+      <c r="AH98" s="17">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
